--- a/csv/01_科学的介護推進体制加算.csv.xlsx
+++ b/csv/01_科学的介護推進体制加算.csv.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\中了宣\Desktop\life帳簿\ndsoft-formoutput\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C54FD6-9099-4030-9D80-36E686322ED6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC03A9B5-D091-4F0D-ACC0-83C1FA1ACFEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5870" yWindow="2450" windowWidth="16800" windowHeight="8190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8120" yWindow="1300" windowWidth="14300" windowHeight="7370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="FORM_0000_2021" sheetId="1" r:id="rId1"/>
+    <sheet name="FORM_0001_2021" sheetId="2" r:id="rId2"/>
+    <sheet name="FORM_0002_2021" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="121">
   <si>
     <t>service_code</t>
   </si>
@@ -333,6 +335,75 @@
   </si>
   <si>
     <t>aaaaa1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>care_facility_id</t>
+  </si>
+  <si>
+    <t>external_system_management_detail_number</t>
+  </si>
+  <si>
+    <t>injury_code</t>
+  </si>
+  <si>
+    <t>disease_name</t>
+  </si>
+  <si>
+    <t>symptoms_appearance_date</t>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>888888888888888a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dispensing_date</t>
+  </si>
+  <si>
+    <t>prescription_number</t>
+  </si>
+  <si>
+    <t>chemical_code_type</t>
+  </si>
+  <si>
+    <t>chemical_code</t>
+  </si>
+  <si>
+    <t>drug_name</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>unit_name</t>
+  </si>
+  <si>
+    <t>dosage_form_code</t>
+  </si>
+  <si>
+    <t>dispensing_quantity</t>
+  </si>
+  <si>
+    <t>method_name</t>
+  </si>
+  <si>
+    <t>5555555555555550q</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>666666666666666a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aaaaaaaaaaa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>888888888888888q</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1315,4 +1386,251 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884202F4-611A-4245-AC88-3D926B21EAF5}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>1111111111</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>333333</v>
+      </c>
+      <c r="F2">
+        <v>4444444444</v>
+      </c>
+      <c r="G2">
+        <v>5555555555</v>
+      </c>
+      <c r="H2">
+        <v>6666666666</v>
+      </c>
+      <c r="I2">
+        <v>7777777777</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2">
+        <v>20201020</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5404A3FB-33BF-4ED6-9B55-63B1D7A06ADB}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2">
+        <v>1111111111</v>
+      </c>
+      <c r="D2">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>333333</v>
+      </c>
+      <c r="F2">
+        <v>4444444444</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2">
+        <v>20190808</v>
+      </c>
+      <c r="J2">
+        <v>111</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>333333333</v>
+      </c>
+      <c r="M2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2">
+        <v>444444</v>
+      </c>
+      <c r="O2">
+        <v>5555555555</v>
+      </c>
+      <c r="P2">
+        <v>66</v>
+      </c>
+      <c r="Q2">
+        <v>777</v>
+      </c>
+      <c r="R2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>